--- a/medicine/Mort/Terrorisme_en_1993/Terrorisme_en_1993.xlsx
+++ b/medicine/Mort/Terrorisme_en_1993/Terrorisme_en_1993.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,17 +520,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-30 janvier, Colombie : un attentat à la voiture piégée à Bogota, attribué au cartel de Medellín, fait vingt-cinq morts et soixante-dix blessés[réf. souhaitée].
-Février
-26 février, États-Unis : un attentat au camion piégé dans le sous-sol du World Trade Center à New York, fait six morts et un millier de blessés[1].
-Mars
-12 mars, Inde : une série d'attentats à Bombay vise plusieurs bâtiments : treize bombes explosent, contre la bourse de Bombay, des banques, des hôtels, des marchés. Deux cent cinquante-sept personnes sont tuées et sept cent treize blessées. Ces attentats auraient été perpétrés en représailles à la destruction de la mosquée d'Ayodhya en décembre 1992[2].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 janvier, Colombie : un attentat à la voiture piégée à Bogota, attribué au cartel de Medellín, fait vingt-cinq morts et soixante-dix blessés[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1993</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>26 février, États-Unis : un attentat au camion piégé dans le sous-sol du World Trade Center à New York, fait six morts et un millier de blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1993</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1993</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 mars, Inde : une série d'attentats à Bombay vise plusieurs bâtiments : treize bombes explosent, contre la bourse de Bombay, des banques, des hôtels, des marchés. Deux cent cinquante-sept personnes sont tuées et sept cent treize blessées. Ces attentats auraient été perpétrés en représailles à la destruction de la mosquée d'Ayodhya en décembre 1992.
 17 mars, Inde : deux bombes explosent dans une banlieue résidentielle de Calcutta, tuant au moins soixante personnes et blessant au moins une centaine d'autres.[réf. nécessaire]
-20 mars, Royaume-Uni : les attentats de Warrington, perpétrés par l'IRA provisoire, causent la mort de deux enfants et font cinquante-six blessés[3].
-Avril
-24 avril, Royaume-Uni : un attentat à l'aide d'une voiture piégée contenant une tonne d'explosifs est perpétré par l'IRA provisoire à la City de Londres. Le bilan fait état d'un mort et quarante-sept blessés. Les dégâts sont évalués à 400 millions de livres sterling[4].
-Mai</t>
+20 mars, Royaume-Uni : les attentats de Warrington, perpétrés par l'IRA provisoire, causent la mort de deux enfants et font cinquante-six blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1993</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>24 avril, Royaume-Uni : un attentat à l'aide d'une voiture piégée contenant une tonne d'explosifs est perpétré par l'IRA provisoire à la City de Londres. Le bilan fait état d'un mort et quarante-sept blessés. Les dégâts sont évalués à 400 millions de livres sterling.</t>
         </is>
       </c>
     </row>
